--- a/src/exportToExcel/Certificate.xlsx
+++ b/src/exportToExcel/Certificate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -40,130 +40,28 @@
     <t>course_credit</t>
   </si>
   <si>
-    <t>737a941e-7c85-4ec8-9636-6fd27709ecfe</t>
-  </si>
-  <si>
-    <t>S34343434L</t>
-  </si>
-  <si>
-    <t>Eda</t>
-  </si>
-  <si>
-    <t>Isaku</t>
-  </si>
-  <si>
-    <t>edaisaku0@gmail.com</t>
+    <t>e8d21d9f-269e-4874-9cf7-0fbb86ccb060</t>
+  </si>
+  <si>
+    <t>Q12345678Q</t>
+  </si>
+  <si>
+    <t>Livia</t>
+  </si>
+  <si>
+    <t>Lika</t>
+  </si>
+  <si>
+    <t>livia@gmail.com</t>
   </si>
   <si>
     <t>BLSD</t>
   </si>
   <si>
-    <t>2021-12-08</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>a2b2c7d2-3f08-492e-b6fd-9dfd468316c4</t>
-  </si>
-  <si>
-    <t>A12345678K</t>
-  </si>
-  <si>
-    <t>boraluca12@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-12-17</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4d1fecca-c434-4b20-aaa3-79b453ffe602</t>
-  </si>
-  <si>
-    <t>A12341236P</t>
-  </si>
-  <si>
-    <t>eda@gmail.com</t>
-  </si>
-  <si>
-    <t>BLS_T</t>
-  </si>
-  <si>
-    <t>2022-04-08</t>
-  </si>
-  <si>
-    <t>9d147564-599d-404b-9588-8d07d09734bf</t>
-  </si>
-  <si>
-    <t>L12332112L</t>
-  </si>
-  <si>
-    <t>eeeeee</t>
-  </si>
-  <si>
-    <t>eeee@Eee.eee</t>
-  </si>
-  <si>
-    <t>fc4198d7-0d69-4987-9a4d-b5c715bb63f3</t>
-  </si>
-  <si>
-    <t>S12093487L</t>
-  </si>
-  <si>
-    <t>Tets</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>test@yahoo.com</t>
-  </si>
-  <si>
-    <t>c7acd5b4-163e-4252-96f9-24541cc180a6</t>
-  </si>
-  <si>
-    <t>L12121212L</t>
-  </si>
-  <si>
-    <t>wwwwwwwwww</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>tes2443t@yahoo.com</t>
-  </si>
-  <si>
-    <t>9eb15137-b043-4c95-aa5a-f198f54e0efc</t>
-  </si>
-  <si>
-    <t>Q12344353S</t>
-  </si>
-  <si>
-    <t>Kridi</t>
-  </si>
-  <si>
-    <t>Ramilli</t>
-  </si>
-  <si>
-    <t>kridi12@gmail.com</t>
-  </si>
-  <si>
-    <t>16525a8e-e6a0-4acd-9627-f30ce2cd8c14</t>
-  </si>
-  <si>
-    <t>A34353434G</t>
-  </si>
-  <si>
-    <t>eda</t>
-  </si>
-  <si>
-    <t>isaku</t>
-  </si>
-  <si>
-    <t>wwww@dddw.com</t>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -556,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="14"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
@@ -615,32 +513,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -649,7 +521,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="14"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
@@ -680,162 +552,6 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/exportToExcel/Certificate.xlsx
+++ b/src/exportToExcel/Certificate.xlsx
@@ -40,28 +40,28 @@
     <t>course_credit</t>
   </si>
   <si>
-    <t>e8d21d9f-269e-4874-9cf7-0fbb86ccb060</t>
-  </si>
-  <si>
-    <t>Q12345678Q</t>
-  </si>
-  <si>
-    <t>Livia</t>
-  </si>
-  <si>
-    <t>Lika</t>
-  </si>
-  <si>
-    <t>livia@gmail.com</t>
+    <t>cbd81bf4-58cd-4671-931d-9e712a51bb3e</t>
+  </si>
+  <si>
+    <t>Q12312312Q</t>
+  </si>
+  <si>
+    <t>Eda</t>
+  </si>
+  <si>
+    <t>Isaku</t>
+  </si>
+  <si>
+    <t>eda@gmail.com</t>
   </si>
   <si>
     <t>BLSD</t>
   </si>
   <si>
-    <t>2022-05-30</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
